--- a/11223-최지민.xlsx
+++ b/11223-최지민.xlsx
@@ -9,13 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8040"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="중고가">Sheet1!$F$5:$F$12</definedName>
+    <definedName name="항목">Sheet1!$E$5:$E$12</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,188 +27,155 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="48">
-  <si>
-    <t>관리코드</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>모델명</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>연료</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>연비
-(km/L)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>HD1-002</t>
-  </si>
-  <si>
-    <t>HD1-002</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>KA2-103</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CB2-002</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>SY1-054</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>RN4-101</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>KA3-003</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>HD2-006</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>HD4-001</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>그랜저</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>그랜드 스타렉스</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>더 뉴 카니발</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>QM3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">티볼리 아머 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>이쿼녹스</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>니로</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>쏘나타 뉴</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>가솔린</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>하이브리드</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>디젤</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>가솔린</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>가솔린</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>디젤</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>하이브리드</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>현대</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>현대</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>기아</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>르노삼성</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>쌍용</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>쉐보레</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>현대</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>제조사</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>연비
-(km/L)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>중고가
-(만원)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>주행기록</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>연비순위</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>직영점</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>하이브리드 차량 연비(km/L) 평균</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>두 번째로 높은 중고가(만원)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>가솔린 차량의 주행기록 합계</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>확
-인</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="40">
+  <si>
+    <t>코드</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>창업주</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>창업일</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>항목</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>창업비용(원)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>인테리어
+경비</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>K2661</t>
+  </si>
+  <si>
+    <t>K2661</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>K3968</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>T1092</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>K2154</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>P1514</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>P2063</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>T1536</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>K3843</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>김유진</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>조형준</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>임유나</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>임용균</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이소영</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>한예지</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>홍준표</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>한사랑</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>핫도그</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>떡갈비</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>떡볶이</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>떡볶이</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>떡갈비</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>핫도그</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>국산재료
+사용비율</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>핫도그 창업 개수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>지역</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>비고</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>최대 인테리어 경비</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>떡볶이 창업비용(원) 평균</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>인테리어
+경비</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>확인</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -220,7 +187,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>이사</t>
+    <t>부장</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -228,10 +195,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="176" formatCode="#,##0.0_-"/>
-    <numFmt numFmtId="177" formatCode="#,##0&quot;km&quot;"/>
+    <numFmt numFmtId="176" formatCode="0.0%"/>
+    <numFmt numFmtId="178" formatCode="0000\-00\-00"/>
+    <numFmt numFmtId="181" formatCode="#,##0&quot;천&quot;&quot;원&quot;"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -414,25 +382,8 @@
       </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="1" diagonalDown="1">
+    <border>
       <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal style="thin">
-        <color indexed="64"/>
-      </diagonal>
-    </border>
-    <border>
-      <left style="medium">
         <color indexed="64"/>
       </left>
       <right style="thin">
@@ -444,8 +395,23 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border diagonalUp="1" diagonalDown="1">
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal style="thin">
+        <color indexed="64"/>
+      </diagonal>
+    </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right style="thin">
@@ -480,9 +446,7 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal style="thin">
         <color indexed="64"/>
       </diagonal>
@@ -493,18 +457,27 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -518,7 +491,10 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -527,92 +503,80 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <font>
-        <color theme="4"/>
-      </font>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -630,32 +594,37 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>21981</xdr:colOff>
+      <xdr:colOff>95251</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>109904</xdr:rowOff>
+      <xdr:rowOff>53578</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>58616</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>601267</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>183173</xdr:rowOff>
+      <xdr:rowOff>119063</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="양쪽 모서리가 잘린 사각형 2"/>
+        <xdr:cNvPr id="2" name="순서도: 화면 표시 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="146539" y="109904"/>
-          <a:ext cx="5018942" cy="644769"/>
+          <a:off x="220267" y="53578"/>
+          <a:ext cx="4583906" cy="410766"/>
         </a:xfrm>
-        <a:prstGeom prst="snip2SameRect">
+        <a:prstGeom prst="flowChartDisplay">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
           <a:srgbClr val="FFFF00"/>
         </a:solidFill>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
         <a:effectLst>
           <a:outerShdw blurRad="50800" dist="38100" algn="l" rotWithShape="0">
             <a:prstClr val="black">
@@ -684,16 +653,16 @@
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="ctr"/>
+          <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="2400">
+            <a:rPr lang="ko-KR" altLang="en-US" sz="2400" b="1">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:latin typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
               <a:ea typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
             </a:rPr>
-            <a:t>신규 등록 중고차 상세 정보</a:t>
+            <a:t>프렌차이즈 창업 현황</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -702,20 +671,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>154220</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>664028</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>109904</xdr:rowOff>
+      <xdr:rowOff>87086</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>442</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>385023</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>232172</xdr:rowOff>
+      <xdr:rowOff>125185</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="그림 4"/>
+        <xdr:cNvPr id="3" name="그림 2"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -735,8 +704,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="5250095" y="109904"/>
-          <a:ext cx="2060784" cy="693768"/>
+          <a:off x="4904014" y="87086"/>
+          <a:ext cx="2128157" cy="506185"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1024,369 +993,330 @@
   <dimension ref="B1:O17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="1.625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9.25" style="1" customWidth="1"/>
-    <col min="6" max="6" width="8" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9" style="1"/>
-    <col min="8" max="8" width="11.125" style="1" customWidth="1"/>
-    <col min="9" max="11" width="9" style="1"/>
-    <col min="12" max="12" width="5" style="1" customWidth="1"/>
-    <col min="13" max="16384" width="9" style="1"/>
+    <col min="2" max="3" width="9" style="1"/>
+    <col min="4" max="4" width="13.875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9" style="1"/>
+    <col min="6" max="6" width="13.125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="13.625" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="2:15" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="1" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="2:15" ht="14.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="2:15" ht="27" x14ac:dyDescent="0.3">
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="G4" s="6" t="s">
+      <c r="E4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="H4" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>40</v>
+      <c r="F4" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="J4" s="10" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B5" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="F5" s="16">
-        <v>2870</v>
-      </c>
-      <c r="G5" s="18">
-        <v>16.100000000000001</v>
-      </c>
-      <c r="H5" s="20">
-        <v>26037</v>
-      </c>
-      <c r="I5" s="2" t="str">
-        <f t="shared" ref="I5:I12" si="0">_xlfn.RANK.EQ(G5,$G$5:$G$12)&amp;"위"</f>
-        <v>4위</v>
-      </c>
-      <c r="J5" s="34" t="str">
-        <f t="shared" ref="J5:J12" si="1">IF(MID(B5,3,1)="1","서울",IF(MID(B5,3,1)="2","경기/인천","기타"))</f>
-        <v>서울</v>
-      </c>
+      <c r="B5" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="15">
+        <v>20190115</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="31">
+        <v>45000000</v>
+      </c>
+      <c r="G5" s="36">
+        <v>10000</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0.95</v>
+      </c>
+      <c r="I5" s="12" t="str">
+        <f t="shared" ref="I5:I12" si="0">CHOOSE(MID(B5,2,1),"안산","부천","안양")</f>
+        <v>부천</v>
+      </c>
+      <c r="J5" s="4"/>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B6" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="16">
-        <v>2650</v>
-      </c>
-      <c r="G6" s="18">
-        <v>19.5</v>
-      </c>
-      <c r="H6" s="20">
-        <v>94160</v>
-      </c>
-      <c r="I6" s="2" t="str">
+      <c r="B6" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="15">
+        <v>20190201</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="31">
+        <v>50000000</v>
+      </c>
+      <c r="G6" s="36">
+        <v>15000</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="I6" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>1위</v>
-      </c>
-      <c r="J6" s="34" t="str">
-        <f t="shared" si="1"/>
-        <v>경기/인천</v>
-      </c>
+        <v>안양</v>
+      </c>
+      <c r="J6" s="4"/>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B7" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="13" t="s">
+      <c r="B7" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="15">
+        <v>20190110</v>
+      </c>
+      <c r="E7" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="F7" s="16">
-        <v>4030</v>
-      </c>
-      <c r="G7" s="18">
-        <v>13.3</v>
-      </c>
-      <c r="H7" s="20">
-        <v>133411</v>
-      </c>
-      <c r="I7" s="2" t="str">
+      <c r="F7" s="31">
+        <v>60000000</v>
+      </c>
+      <c r="G7" s="36">
+        <v>18000</v>
+      </c>
+      <c r="H7" s="2">
+        <v>0.88500000000000001</v>
+      </c>
+      <c r="I7" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>6위</v>
-      </c>
-      <c r="J7" s="34" t="str">
-        <f t="shared" si="1"/>
-        <v>경기/인천</v>
-      </c>
+        <v>안산</v>
+      </c>
+      <c r="J7" s="4"/>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B8" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="F8" s="16">
-        <v>2060</v>
-      </c>
-      <c r="G8" s="18">
-        <v>14.2</v>
-      </c>
-      <c r="H8" s="20">
-        <v>96300</v>
-      </c>
-      <c r="I8" s="2" t="str">
+      <c r="B8" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="15">
+        <v>20190115</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" s="31">
+        <v>55455500</v>
+      </c>
+      <c r="G8" s="36">
+        <v>20000</v>
+      </c>
+      <c r="H8" s="2">
+        <v>0.755</v>
+      </c>
+      <c r="I8" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>5위</v>
-      </c>
-      <c r="J8" s="34" t="str">
-        <f t="shared" si="1"/>
-        <v>서울</v>
-      </c>
+        <v>부천</v>
+      </c>
+      <c r="J8" s="4"/>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B9" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="F9" s="16">
-        <v>2100</v>
-      </c>
-      <c r="G9" s="18">
-        <v>17.3</v>
-      </c>
-      <c r="H9" s="20">
-        <v>97803</v>
-      </c>
-      <c r="I9" s="2" t="str">
+      <c r="B9" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="15">
+        <v>20190201</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" s="31">
+        <v>38500000</v>
+      </c>
+      <c r="G9" s="36">
+        <v>80000</v>
+      </c>
+      <c r="H9" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="I9" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>2위</v>
-      </c>
-      <c r="J9" s="34" t="str">
-        <f t="shared" si="1"/>
-        <v>기타</v>
-      </c>
+        <v>안산</v>
+      </c>
+      <c r="J9" s="4"/>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B10" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" s="13" t="s">
+      <c r="B10" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="15">
+        <v>20190205</v>
+      </c>
+      <c r="E10" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="E10" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="F10" s="16">
-        <v>3450</v>
-      </c>
-      <c r="G10" s="18">
-        <v>11.4</v>
-      </c>
-      <c r="H10" s="20">
-        <v>71715</v>
-      </c>
-      <c r="I10" s="2" t="str">
+      <c r="F10" s="31">
+        <v>45500000</v>
+      </c>
+      <c r="G10" s="36">
+        <v>12000</v>
+      </c>
+      <c r="H10" s="2">
+        <v>0.85</v>
+      </c>
+      <c r="I10" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>7위</v>
-      </c>
-      <c r="J10" s="34" t="str">
-        <f t="shared" si="1"/>
-        <v>기타</v>
-      </c>
+        <v>부천</v>
+      </c>
+      <c r="J10" s="4"/>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B11" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="F11" s="16">
-        <v>4660</v>
-      </c>
-      <c r="G11" s="18">
-        <v>10.9</v>
-      </c>
-      <c r="H11" s="20">
-        <v>7692</v>
-      </c>
-      <c r="I11" s="2" t="str">
+      <c r="B11" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="15">
+        <v>20190117</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" s="31">
+        <v>62000000</v>
+      </c>
+      <c r="G11" s="36">
+        <v>19500</v>
+      </c>
+      <c r="H11" s="2">
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="I11" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>8위</v>
-      </c>
-      <c r="J11" s="34" t="str">
-        <f t="shared" si="1"/>
-        <v>경기/인천</v>
-      </c>
+        <v>안산</v>
+      </c>
+      <c r="J11" s="4"/>
     </row>
     <row r="12" spans="2:15" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="E12" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="F12" s="17">
-        <v>3950</v>
-      </c>
-      <c r="G12" s="19">
-        <v>16.2</v>
+      <c r="B12" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="20">
+        <v>20190201</v>
+      </c>
+      <c r="E12" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12" s="32">
+        <v>40000000</v>
+      </c>
+      <c r="G12" s="37">
+        <v>9500</v>
       </c>
       <c r="H12" s="21">
-        <v>117884</v>
-      </c>
-      <c r="I12" s="11" t="str">
+        <v>0.92500000000000004</v>
+      </c>
+      <c r="I12" s="19" t="str">
         <f t="shared" si="0"/>
-        <v>3위</v>
-      </c>
-      <c r="J12" s="35" t="str">
-        <f t="shared" si="1"/>
-        <v>기타</v>
-      </c>
+        <v>안양</v>
+      </c>
+      <c r="J12" s="22"/>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B13" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="C13" s="23"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="31">
-        <f>SUMIF(D5:D12,"하이브리드",G5:G12)/COUNTIF(D5:D12,"하이브리드")</f>
-        <v>17.850000000000001</v>
-      </c>
-      <c r="F13" s="27"/>
+      <c r="B13" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="24"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="25"/>
       <c r="G13" s="24" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="H13" s="24"/>
       <c r="I13" s="24"/>
-      <c r="J13" s="33">
-        <f>LARGE(중고가,2)</f>
-        <v>4030</v>
-      </c>
+      <c r="J13" s="34"/>
     </row>
     <row r="14" spans="2:15" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="C14" s="26"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="32">
-        <f>DSUM(B4:H12,7,D4:D5)</f>
-        <v>194052</v>
-      </c>
-      <c r="F14" s="28"/>
-      <c r="G14" s="9" t="s">
+      <c r="B14" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="H14" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="I14" s="10" t="s">
+      <c r="H14" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="I14" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="J14" s="35"/>
+    </row>
+    <row r="15" spans="2:15" ht="14.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="16" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="L16" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="J14" s="3">
-        <f>VLOOKUP(H14,B5:G12,6,0)</f>
-        <v>16.100000000000001</v>
+      <c r="M16" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="N16" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="O16" s="28" t="s">
+        <v>39</v>
       </c>
     </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="L16" s="29" t="s">
-        <v>44</v>
-      </c>
-      <c r="M16" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="N16" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="O16" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="17" spans="12:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="L17" s="30"/>
-      <c r="M17" s="2"/>
-      <c r="N17" s="2"/>
-      <c r="O17" s="2"/>
+    <row r="17" spans="12:15" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L17" s="29"/>
+      <c r="M17" s="16"/>
+      <c r="N17" s="16"/>
+      <c r="O17" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1397,14 +1327,6 @@
     <mergeCell ref="L16:L17"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="B5:J12">
-    <cfRule type="expression" priority="2">
-      <formula>$G5&gt;16</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="0" priority="1">
-      <formula>$G5&gt;=16</formula>
-    </cfRule>
-  </conditionalFormatting>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H14">
       <formula1>$B$5:$B$12</formula1>
